--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_2_river_insp_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_2_river_insp_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80074FD-A949-42CD-ACB7-AFA5D208BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B038F-B9DC-4E63-BE8B-083F83D60074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -559,9 +559,6 @@
     <t>IBI</t>
   </si>
   <si>
-    <t>JALINGO/K/LAMIDO</t>
-  </si>
-  <si>
     <t>KARIM LAMIDO</t>
   </si>
   <si>
@@ -619,9 +616,6 @@
     <t>FILINGA</t>
   </si>
   <si>
-    <t>GANGWEREN</t>
-  </si>
-  <si>
     <t>JAURO JALLO</t>
   </si>
   <si>
@@ -703,9 +697,6 @@
     <t>LUMBU</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>FIYAYI</t>
   </si>
   <si>
@@ -715,9 +706,6 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>TAR_ARD_N_001</t>
-  </si>
-  <si>
     <t>TAR_ARD_N_002</t>
   </si>
   <si>
@@ -763,9 +751,6 @@
     <t>TAR_GAL_N_016</t>
   </si>
   <si>
-    <t>TAR_GAL_N_017</t>
-  </si>
-  <si>
     <t>TAR_GAL_N_018</t>
   </si>
   <si>
@@ -784,12 +769,6 @@
     <t>TAR_IBI_N_023</t>
   </si>
   <si>
-    <t>TAR_JAL_N_024</t>
-  </si>
-  <si>
-    <t>TAR_JAL_N_025</t>
-  </si>
-  <si>
     <t>TAR_KAL_N_026</t>
   </si>
   <si>
@@ -802,9 +781,6 @@
     <t>TAR_KUR_N_029</t>
   </si>
   <si>
-    <t>TAR_LAU_N_030</t>
-  </si>
-  <si>
     <t>TAR_LAU_N_031</t>
   </si>
   <si>
@@ -823,15 +799,9 @@
     <t>TAR_TAK_N_036</t>
   </si>
   <si>
-    <t>TAR_TAK_N_037</t>
-  </si>
-  <si>
     <t>TAR_TAK_N_038</t>
   </si>
   <si>
-    <t>TAR_TAK_N_039</t>
-  </si>
-  <si>
     <t>TAR_WUK_N_040</t>
   </si>
   <si>
@@ -869,6 +839,57 @@
   </si>
   <si>
     <t>TAR_SAR_M_052</t>
+  </si>
+  <si>
+    <t>MAIHULA</t>
+  </si>
+  <si>
+    <t>GANGUMI</t>
+  </si>
+  <si>
+    <t>SENDIRDE</t>
+  </si>
+  <si>
+    <t>ANGWAN GALADIMA</t>
+  </si>
+  <si>
+    <t>BAMBUKA</t>
+  </si>
+  <si>
+    <t>BENTE SAMA</t>
+  </si>
+  <si>
+    <t>KABRI</t>
+  </si>
+  <si>
+    <t>MAYO-NDAGA</t>
+  </si>
+  <si>
+    <t>KWESATI</t>
+  </si>
+  <si>
+    <t>BANTAJE</t>
+  </si>
+  <si>
+    <t>TAR_GAL_N_001</t>
+  </si>
+  <si>
+    <t>TAR_GAA_N_017</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_024</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_025</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_030</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_037</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_039</t>
   </si>
 </sst>
 </file>
@@ -2257,11 +2278,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD152"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2783,37 +2804,37 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>165</v>
-      </c>
+      <c r="A48" s="20"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="21"/>
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,13 +2842,13 @@
         <v>155</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,10 +2856,10 @@
         <v>155</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
         <v>167</v>
@@ -2849,10 +2870,10 @@
         <v>155</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -2863,10 +2884,10 @@
         <v>155</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
         <v>167</v>
@@ -2877,13 +2898,13 @@
         <v>155</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,13 +2912,13 @@
         <v>155</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,10 +2926,10 @@
         <v>155</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>168</v>
@@ -2919,10 +2940,10 @@
         <v>155</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
         <v>168</v>
@@ -2933,13 +2954,13 @@
         <v>155</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,13 +2968,13 @@
         <v>155</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,10 +2982,10 @@
         <v>155</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
         <v>169</v>
@@ -2975,10 +2996,10 @@
         <v>155</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
         <v>169</v>
@@ -2989,10 +3010,10 @@
         <v>155</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
         <v>169</v>
@@ -3003,10 +3024,10 @@
         <v>155</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
         <v>169</v>
@@ -3017,10 +3038,10 @@
         <v>155</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
         <v>169</v>
@@ -3031,13 +3052,13 @@
         <v>155</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,10 +3066,10 @@
         <v>155</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
         <v>170</v>
@@ -3059,10 +3080,10 @@
         <v>155</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
         <v>170</v>
@@ -3073,10 +3094,10 @@
         <v>155</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s">
         <v>170</v>
@@ -3087,10 +3108,10 @@
         <v>155</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
         <v>171</v>
@@ -3101,10 +3122,10 @@
         <v>155</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
         <v>171</v>
@@ -3115,10 +3136,10 @@
         <v>155</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E72" t="s">
         <v>171</v>
@@ -3129,10 +3150,10 @@
         <v>155</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
         <v>171</v>
@@ -3143,10 +3164,10 @@
         <v>155</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E74" t="s">
         <v>171</v>
@@ -3157,10 +3178,10 @@
         <v>155</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E75" t="s">
         <v>171</v>
@@ -3171,10 +3192,10 @@
         <v>155</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="E76" t="s">
         <v>172</v>
@@ -3185,10 +3206,10 @@
         <v>155</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" t="s">
         <v>172</v>
@@ -3199,13 +3220,13 @@
         <v>155</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,13 +3234,13 @@
         <v>155</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,13 +3248,13 @@
         <v>155</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,13 +3262,13 @@
         <v>155</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,13 +3276,13 @@
         <v>155</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,13 +3290,13 @@
         <v>155</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,13 +3304,13 @@
         <v>155</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,13 +3318,13 @@
         <v>155</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3311,13 +3332,13 @@
         <v>155</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,13 +3346,13 @@
         <v>155</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,13 +3360,13 @@
         <v>155</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,13 +3374,13 @@
         <v>155</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,13 +3388,13 @@
         <v>155</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,13 +3402,13 @@
         <v>155</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3395,13 +3416,13 @@
         <v>155</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,13 +3430,13 @@
         <v>155</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,10 +3444,10 @@
         <v>155</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
         <v>177</v>
@@ -3437,13 +3458,13 @@
         <v>155</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,13 +3472,13 @@
         <v>155</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,13 +3486,13 @@
         <v>155</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,13 +3500,13 @@
         <v>155</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3493,45 +3514,45 @@
         <v>155</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101" t="s">
-        <v>181</v>
-      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,13 +3560,13 @@
         <v>38</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,13 +3574,13 @@
         <v>38</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,13 +3588,13 @@
         <v>38</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F105" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,13 +3602,13 @@
         <v>38</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,13 +3616,13 @@
         <v>38</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F107" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,13 +3630,13 @@
         <v>38</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,13 +3644,13 @@
         <v>38</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,13 +3658,13 @@
         <v>38</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,13 +3672,13 @@
         <v>38</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3686,13 @@
         <v>38</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,13 +3700,13 @@
         <v>38</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,13 +3714,13 @@
         <v>38</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,13 +3728,13 @@
         <v>38</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F115" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,13 +3742,13 @@
         <v>38</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F116" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,13 +3756,13 @@
         <v>38</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,13 +3770,13 @@
         <v>38</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,13 +3784,13 @@
         <v>38</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,13 +3798,13 @@
         <v>38</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,13 +3812,13 @@
         <v>38</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3826,13 @@
         <v>38</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,13 +3840,13 @@
         <v>38</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,13 +3854,13 @@
         <v>38</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,13 +3868,13 @@
         <v>38</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F125" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,13 +3882,13 @@
         <v>38</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3896,13 @@
         <v>38</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,13 +3910,13 @@
         <v>38</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,13 +3924,13 @@
         <v>38</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,13 +3938,13 @@
         <v>38</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,13 +3952,13 @@
         <v>38</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="F131" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3966,13 @@
         <v>38</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +3980,13 @@
         <v>38</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +3994,13 @@
         <v>38</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,13 +4008,13 @@
         <v>38</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4001,13 +4022,13 @@
         <v>38</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4036,13 @@
         <v>38</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,13 +4050,13 @@
         <v>38</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4043,13 +4064,13 @@
         <v>38</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,13 +4078,13 @@
         <v>38</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F140" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,13 +4092,13 @@
         <v>38</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4106,13 @@
         <v>38</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,10 +4120,10 @@
         <v>38</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
         <v>220</v>
@@ -4113,13 +4134,13 @@
         <v>38</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,13 +4148,13 @@
         <v>38</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,13 +4162,13 @@
         <v>38</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4176,13 @@
         <v>38</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F147" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,13 +4190,13 @@
         <v>38</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F148" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,13 +4204,13 @@
         <v>38</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4218,13 @@
         <v>38</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,13 +4232,13 @@
         <v>38</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4246,27 @@
         <v>38</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F153" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
